--- a/workingHours.xlsx
+++ b/workingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amulek/Desktop/chemStores_scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E036DA6D-4BC1-D149-92BE-F68EAD1BCB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D15C07-8DA1-D54D-A9AD-8E49C5C9463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
         <v>2</v>
